--- a/topic_split/topic_7.xlsx
+++ b/topic_split/topic_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>issue</t>
   </si>
@@ -22,76 +22,157 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.01069556 0.00756116 0.01143059 0.00729905 0.01194131 0.01800425
- 0.2083743  0.03977042 0.01699741 0.01519834 0.04234867 0.01381394
- 0.0373293  0.01007725 0.06009397 0.01646619 0.01857521 0.046351
- 0.022136   0.02312435 0.01818327 0.0248705  0.02661853 0.01806247
- 0.02089824]</t>
-  </si>
-  <si>
-    <t>[3.32411250e-308 2.49317494e-308 3.70694328e-308 2.41068479e-308
- 3.73675673e-308 5.53850881e-308 1.00000000e+000 1.27252355e-307
- 5.50925405e-308 4.65277873e-308 1.23002705e-307 4.40622126e-308
- 1.32781910e-307 3.35254682e-308 1.95311421e-307 4.96944155e-308
- 5.66037272e-308 1.49931724e-307 6.56531274e-308 6.95860620e-308
- 5.94010567e-308 7.29515887e-308 8.78228994e-308 5.51758014e-308
- 6.51193848e-308]</t>
-  </si>
-  <si>
-    <t>[0.01222234 0.00859783 0.01092491 0.00832619 0.01151104 0.01833558
- 0.14298954 0.03376957 0.01511906 0.01679627 0.03048332 0.01270582
- 0.03153883 0.01160222 0.06549722 0.01732041 0.02044092 0.0773356
- 0.02178591 0.02560956 0.01626247 0.02521379 0.02397506 0.020661
- 0.0187664 ]</t>
-  </si>
-  <si>
-    <t>[3.29537650e-308 2.60676429e-308 3.68297468e-308 2.51515119e-308
- 3.56669506e-308 5.18400832e-308 1.00000000e+000 1.07464683e-307
- 5.44880866e-308 4.90969875e-308 1.07584263e-307 4.41105544e-308
- 1.38951772e-307 3.56291200e-308 1.58476225e-307 5.16928250e-308
- 5.44983225e-308 1.37847306e-307 6.78971448e-308 7.55904533e-308
- 5.81854868e-308 7.25742644e-308 8.22184253e-308 5.90385621e-308
- 6.81517112e-308]</t>
-  </si>
-  <si>
-    <t>[3.39559965e-308 2.56746111e-308 3.50677337e-308 2.47924625e-308
- 3.53720334e-308 5.33412274e-308 1.00000000e+000 1.09176562e-307
- 5.08061875e-308 4.86745118e-308 1.04556423e-307 4.15834335e-308
- 1.16462868e-307 3.48497228e-308 1.84795515e-307 5.10692434e-308
- 5.67160498e-308 1.67229695e-307 6.59902698e-308 7.41960207e-308
- 5.41769024e-308 7.31576536e-308 7.78204140e-308 5.87155168e-308
- 6.23668330e-308]</t>
-  </si>
-  <si>
-    <t>[0.01168648 0.00849357 0.01090766 0.0082532  0.0112273  0.01771377
- 0.13964748 0.03405091 0.01515552 0.01601453 0.03023198 0.01262664
- 0.03247452 0.01146756 0.06895291 0.01647687 0.01935851 0.08241263
- 0.02054609 0.02399144 0.01632506 0.02349597 0.02384615 0.01955046
- 0.01845404]</t>
-  </si>
-  <si>
-    <t>[0.01273841 0.0091828  0.0117408  0.00891501 0.01173251 0.01811101
- 0.09003077 0.03163073 0.01630632 0.01980375 0.03146437 0.01391977
- 0.03339415 0.01238018 0.05242619 0.02016675 0.02042401 0.0595583
- 0.02515053 0.03164018 0.01735786 0.02707635 0.02368617 0.02494394
- 0.02181622]</t>
-  </si>
-  <si>
-    <t>[0.01318531 0.00921678 0.01195792 0.00897369 0.01217896 0.01922908
- 0.09582102 0.03444004 0.01650259 0.01936694 0.03300081 0.01401684
- 0.03383739 0.01234489 0.06202875 0.01983929 0.02155603 0.07366844
- 0.02467006 0.03011289 0.01773908 0.02756399 0.02494031 0.02416121
- 0.02140019]</t>
-  </si>
-  <si>
-    <t>[0.01147521 0.00834138 0.01224803 0.00811705 0.01265623 0.01954496
- 0.16755593 0.04757321 0.01752321 0.0149657  0.03868237 0.01405379
- 0.04224732 0.01115194 0.08965843 0.01585375 0.01979688 0.06295735
- 0.02052258 0.02186385 0.01945661 0.02380558 0.03127749 0.01775985
- 0.01991912]</t>
+    <t xml:space="preserve">3w - Integrate FDRS data disaggregation on 3w population figures
+**Is your feature request related to a problem? Please describe.**
+Currently, GO 3w allows National Societies to submit population figures within a 3w project, either for people targeted or people reached. Disaggregation figures available in GO are basic: Male, Female, and Other. 
+One of the recommendations provided by Geneva FDRS team, was to align the disaggregation approach with FDRS platform. National Societies report in FDRS on an annual basis, following special disaggregation principles and guidelines, particularly when reporting population figures. 
+GO 3w to be aligned with FDRS in regards disaggregation in population figures, allowing National Societies to report on a single structure in both platforms, and avoiding extra steps and time with additional calculations.
+**Describe the solution you'd like**
+To agree on additional data points needed to align with FDRS population figures, and include them in GO 3w.
+To revise current data points (People Targeted - Male, People Targeted - Female, People Targeted - Other, People Reached - Male, People Reached - Female, People Reached - Other) and integrate FDRS population figures in gender, disabilities, and age groups (if applicable).
+**Describe alternatives you've considered**
+*A clear and concise description of any alternative solutions or features you've considered.*
+**Additional context**
+Potential changes in data structure in regards population figures. It may need to expand/add age groups, population with disabilities, and gender disaggregation. This may affect current data points, and will need to modify current 3w records/submissions.
+**Where does the data come from and how is it maintained?**
+3w data comes from National Societies, Partner National Societies and IFRC sectoral leads. It is maintained by themselves.
+**Should there be any restrictions around viewing or updating information related to this feature**
+*any considerations around permissions e.g. public vs only logged-in RCRC users should be able to see this*
+**Links to documentation**
+FDRS videos that show data disaggregation: https://www.youtube.com/playlist?list=PLf2g_NkFyyv6_tXhWfA71vHfW7ZS8LFpz
+[EN FDRS User Guide 2020  (3).pdf](https://github.com/IFRCGo/go-frontend/files/6925456/EN.FDRS.User.Guide.2020.3.pdf)
+[Technical Note On Counting People Reached.pdf](https://github.com/IFRCGo/go-frontend/files/6925458/Technical.Note.On.Counting.People.Reached.pdf)
+</t>
+  </si>
+  <si>
+    <t>Show multi-country/regional appeals on country pages
+**Is your feature request related to a problem? Please describe.**
+Multiple Heads of Delegations told they want to see multi-country/regional appeals on country pages. E.g. South Sudan is part of the [Africa Hunger Crisis](https://go.ifrc.org/emergencies/6008) appeal, but the South Sudan [country page](https://go.ifrc.org/countries/290/operations) doesn't show any active appeals, which is confusing to users. At the moment, users have to look at both the country page and the region's page to figure out if a given NS has any active appeals ongoing.
+**Describe the solution you'd like**
+All multi-country/regional appeals should also appear on country pages that are part of those appeals (in addition to Regions' pages). Also, Luke confirmed this would be the preferred behaviour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ReqID) (Visibility affected area) (Visibility Affected Areas on Emergency Pages)
+**Is your feature request related to a problem? Please describe.**
+*When the country is rather large (e.g. Soviet Union), on an emergency page, the affected area is not shown, because it is zoom out too far. You need to zoom in a couple of steps to actually the affected areas*
+**Describe the solution you'd like**
+*When open an emergency page, show the map from a minimum zoom level. If on that level, have the map centered around the affected area.*
+**Describe alternatives you've considered**
+- *Have a message on the page saying that in order to see the affected area, you need to zoom in.*
+- *Have the affected areas shown always, no matter how far you zoom out. &gt; Issue with showing adm1 data ... *
+**Additional context**
+*Two examples:*
+*[Example 1: Russia floods](https://go.ifrc.org/emergencies/6937/details): In order to see the affected area, zoom in 2x and then move right on the map*
+*[Example 2: Russia Shooting](https://go.ifrc.org/emergencies/6932/details): In order to see the affected area, zoom in 2x*
+**Where does the data come from and how is it maintained?**
+*Automatic generated pages based on field reports*
+**Should there be any restrictions around viewing or updating information related to this feature**
+*Generic issue*
+**Links to documentation**
+*See links above.*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have link to communication guidelines on Field Report submit page
+**Is your feature request related to a problem? Please describe.**
+Field reports can be submitted by NSs themselves. NSs might have a different ideas on language what is appropriate. We need to have some general communication guidelines how to phrase things (or how not) so it adheres to our principles of neutrality and independence. There should be a link to these guidelines when submitting a Field Report.
+**Describe the solution you'd like**
+On the create field report page a clear link to the communication guidelines. With a message that, IFRC has the right to depublish a field report when it is not in line with these guidelines.
+**Describe alternatives you've considered**
+Having the guidelines shown and you need to click on "Yes, I agree" in order to go further. &gt; This is making it too cumbersome.
+**Where does the data come from and how is it maintained?**
+Communication guidelines could be provided by the (web) comms team.
+**Should there be any restrictions around viewing or updating information related to this feature**
+Everyone should see this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active alert going out to GO-managers if potential sensitive text is posted on GO
+**Is your feature request related to a problem? Please describe.**
+Non-IFRC staff can submit Field Reports (and operations, etc). Monitoring of the submitted texts is by discretion of the regional offices. This might not be done very often. Therefore, there can be texts posted on GO which are political sensitive and could cause some uproar (as we've seen in the past). The GO-managers need to get notified on texts that are questionable regarding the wording/phrasing, so they can take action immediately. 
+**Describe the solution you'd like**
+Have a black-list of words/phrases. If a text (title, bodytext, etc) contains any of the words, the entry should be flagged and be hidden until a GO-manager has approved the entry. If this happens, the GO-manager should get an email with an action item to review the entry and to approve or disapprove it.
+**Describe alternatives you've considered**
+*A clear and concise description of any alternative solutions or features you've considered.*
+**Additional context**
+I'm using the term "GO-manager". It would be good if there are multiple people on this list, so the process is not coming to a halt when a person is on leave. This could be by region, but could also done globally..
+**Where does the data come from and how is it maintained?**
+The data for the black list should be maintained by comms GVA or the GO administrators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-validation of user-accounts: are they still eligible for access.
+**After approval of an account, there is no check whether that account should still have access after some time**
+*There is process for getting an account in GO. You need to have a validated email-address and if it is from a domain on the white-list you can direct access. Otherwise, it needs to be approved by the region. However, once you have access, there is no process to de-activate an account if the person (for instance) left the Red Cross, and should no longer have access anymore.*
+**Describe the solution you'd like**
+*Automated re-verification of email addresses. Meaning: Every so many times (e.g. half year) users will get an email in which they need to confirm their access to GO, by clicking on a link. When the email is sent, the account is set to in-active. When they click the link, the account is activated again. This should work fine for emails from the whitelisted domains. Assuming that the NS is actively de-activating accounts after people have left the organisation.*
+*For email addresses not on the white-list, when the person has clicked the link to confirm continuation of access, there should also go a mail to the regional representative indicating that that specific account has prolonged his/her access. Adding to that, the person(s) with Staff Status of the respective NS where the account is from should also receive the message that the account has been prolonged. This also gives a responsibility to the NS on who has access and who not.*
+*Of course there are variations of this solution. Bottomline, we need to have a process wherein we validate if users still are eligible for access to GO*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove empty information fields for Flash Update Export and make image bigger or clickable
+**Is your feature request related to a problem? Please describe.**
+*When you share a Flash Update with a donor, they will get an email with a PDF in it. Same PDF which you will get if you export a Flash Update. This PDF also shows empty fields (which are not shown in the Flash Update online). 
+The attachments shown (image and graphics) are shown quite small. This does not help the readability of these graphics/images*
+**Describe the solution you'd like**
+*Only show fields that contain information. E.g. When there are no actions taken by the RCRC, then do not show that section (instead of saying "none"). 
+Also, the image added is only shown quite small. Can we either make this bigger (so the map is actually readable), or you put a link on it so you can open the original one in a browser.*
+**Describe alternatives you've considered**
+*Continuing our current working model: not using Flash Update, but generating an Info Message which the HDCC department sends out themselves.*
+**Additional context**
+*Example export of a [Flash Update Dana Storm](https://prddsgofilestorage.blob.core.windows.net/api/flash_update/pdf/[flash_update_wTZx9Wd.pdf](https://prddsgofilestorage.blob.core.windows.net/api/flash_update/pdf/flash_update_wTZx9Wd.pdf))*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PROD] Overseas territories unable to compete field reports (+ other issues related to these territories - e.g., incorrect region)
+## Issue
+British Red Cross overseas branches (https://www.redcross.org.uk/about-us/what-we-do/international/british-overseas-territories) are unable to complete field reports on GO, as the territory that is reporting - the GO district - is not linked to the UK or any other country, or available for them to select as an independent country. 
+This was identified with recent Hurricanes in the region when they were doing preparedness activities and found they were unable to report using the “New Field Report” form. As such, if our overseas branches were hit by a hurricane, or would like to report an emergency, IFRC would not get these NS field reports via GO. 
+This was first identified approx 6 months to 1 year ago. 
+**In a future update to GO, could you link these territories to the UK?**
+## Steps to reproduce
+Field report:
+![Image](https://github.com/user-attachments/assets/4b66aea6-8dc5-4b0b-9cba-0407a85bcdfa)
+Example district page (Bermuda):
+![Image](https://github.com/user-attachments/assets/60860451-d1bf-42ff-b171-e08d8c1db3bb)
+## Expected behaviour
+These should work similar to territories like Aruba / Netherlands. 
+These territories should be able to complete report field reports independently. 
+## Impact
+All overseas territories, which operate as individual RC National Societies are unable to complete field reports. 
+All users searching for the territory. 
+## Severity
+High. The overseas branch/ territory is unable to implement GO as part of their emergency business process. IFRC is unable to get field reports. 
+It prevents those impacted from using the system at all, and there may be a functional impact to a field operation
+## Is there a workaround?
+TBC: Can IFRC provide alternatives while a territory is unable do a field report?
+---
+Additional information:
+- Affected territories (all) are listed here: https://www.redcross.org.uk/about-us/what-we-do/international/british-overseas-territories
+- We’ve found that some are linked to Europe or Americas, but then not a country.
+- One (Montserrat) does have a page, but is not searchable. 
+- I recognise this does restart a conversation about territories, and how they operate.
+- I’ve also attached a spreadsheet which lists issues, and proposed solutions, that was shared with the GVA IM team approx. 6 months to 1 year ago. 
+We’ll be more than happy to support and chat through any questions that you have!
+[Updating the Go Country Data - BRC.xlsx](https://github.com/user-attachments/files/17946982/Updating.the.Go.Country.Data.-.BRC.xlsx)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info ticket:  disaster type categorisation considerations
+Hi there, I think there is already at least one ticket for this but I can't find it this moment, so documenting afresh.  Not requesting a specific action under this ticket, just writing it down for those who aren't already aware.  I don't have access to the internal GO team documents - there is also documentation there, which may supplement this post.
+**Disaster Types are not always consistent - not even internally consistent within the structured data fields that relate to that particular operation, let alone consistent with the wording chosen to be used for public facing documentation.  Need to resolve approach to this before considering which field to do any structured naming off**
+At the moment there is a disaster type for the *appeal/DREF* and a disaster type for the *emergency/event* (bearing in mind not all emergencies have an associated appeal/DREF).  These two don't always match.  Sometimes because the categorisation decision at the point of creating a field report (informal) is not the same as the categorisation decided-on when launching a formal DREF/Appeal.
+In other cases they are both aligned at the outset, but the categorisation changes over time (and not all systems are necessarily updated to reflect that changed decision - in the same way that when an appeal is first set up it might not have its name changed in IFRC Financial Systems even when its name is changed in public-facing systems such as GO emergency page).
+In still other cases the situation might correctly have multiple relevant categorisations - e.g. where a complex emergency in one country causes a population movement in other countries, with separate operations, but there's a multi-country public-facing appeal set up that covers the whole response.
+Similarly, the country/location used in the IFRC Financial Systems as being responsible for the appeal might not be the country/location where the action is actually happening - e.g. Ukraine response appeal was in the IFRC financial systems as Hungary as that's the regional office.  The global Covid response appeal was in the IFRC financial systems as Switzerland (even though in the early days it was a China/Asia response, that later became a global one).
+**So, for all these reasons, if deciding to automatically name an emergency page based on data fields then need to be sure the logic is referencing the correct data fields.  Noting that not all data fields are always updated in the same way - financial and reporting systems often need different data to public-facing comms**.
+Here are examples where the emergency disaster type is different to the appeal disaster type for that emergency - for appeals that are currently at status active on GO.  Some of these may be due to human error, others definitely are not.
+![Image](https://github.com/user-attachments/assets/ef65bfd1-e826-426e-8ca6-956712259cd1)
+To show you the front end, this is MDRHN024 (Honduras) on GO - on the emergency page it's a cyclone/tropical storm, in the appeal that that emergency is mapped to it is a Flood.
+![Image](https://github.com/user-attachments/assets/b6311fb4-27f2-4d59-87ea-f3bbb416717b)
+![Image](https://github.com/user-attachments/assets/8841d353-9278-4e95-a54e-65492a587e13)
+</t>
   </si>
 </sst>
 </file>
@@ -449,120 +530,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>94</v>
-      </c>
       <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>105</v>
-      </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>150</v>
-      </c>
       <c r="B4">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>168</v>
-      </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>169</v>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>170</v>
-      </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>183</v>
-      </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>191</v>
-      </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>195</v>
-      </c>
       <c r="B10">
         <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
